--- a/dissertation/aim1/manifest/m_counts.xlsx
+++ b/dissertation/aim1/manifest/m_counts.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/sevillas2/git/gmu/dissertation/aim1/manifest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7280C6B6-DB61-D345-9CE2-9BD935856643}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FE9B7E-BB97-7C49-988C-74F4A951E5B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2360" windowWidth="27640" windowHeight="16940" xr2:uid="{270ED0A7-5523-2843-BEE4-D06ACF674A52}"/>
+    <workbookView xWindow="84720" yWindow="2960" windowWidth="27640" windowHeight="16940" xr2:uid="{270ED0A7-5523-2843-BEE4-D06ACF674A52}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="29">
   <si>
     <t>Subject-ID</t>
   </si>
@@ -119,15 +119,32 @@
   <si>
     <t>Present/Absent</t>
   </si>
+  <si>
+    <t>Post Counts</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -159,9 +176,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6904833F-B746-144D-BCDD-05C78AA42CF6}">
   <dimension ref="A1:V312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -498,7 +517,7 @@
         <v>2</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
@@ -557,7 +576,7 @@
         <v>10</v>
       </c>
       <c r="U2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="V2" t="s">
         <v>11</v>
@@ -574,35 +593,35 @@
         <v>12</v>
       </c>
       <c r="E3">
-        <f>COUNTIFS($A:$A,$D3,$B:$B,E$2)</f>
+        <f t="shared" ref="E3:L12" si="0">COUNTIFS($A:$A,$D3,$B:$B,E$2)</f>
         <v>0</v>
       </c>
       <c r="F3">
-        <f>COUNTIFS($A:$A,$D3,$B:$B,F$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G3">
-        <f>COUNTIFS($A:$A,$D3,$B:$B,G$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H3">
-        <f>COUNTIFS($A:$A,$D3,$B:$B,H$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I3">
-        <f>COUNTIFS($A:$A,$D3,$B:$B,I$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J3">
-        <f>COUNTIFS($A:$A,$D3,$B:$B,J$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K3">
-        <f>COUNTIFS($A:$A,$D3,$B:$B,K$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L3">
-        <f>COUNTIFS($A:$A,$D3,$B:$B,L$2)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="N3" t="s">
@@ -644,35 +663,35 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <f>COUNTIFS($A:$A,$D4,$B:$B,E$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4">
-        <f>COUNTIFS($A:$A,$D4,$B:$B,F$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G4">
-        <f>COUNTIFS($A:$A,$D4,$B:$B,G$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4">
-        <f>COUNTIFS($A:$A,$D4,$B:$B,H$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4">
-        <f>COUNTIFS($A:$A,$D4,$B:$B,I$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4">
-        <f>COUNTIFS($A:$A,$D4,$B:$B,J$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4">
-        <f>COUNTIFS($A:$A,$D4,$B:$B,K$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L4">
-        <f>COUNTIFS($A:$A,$D4,$B:$B,L$2)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="N4" t="s">
@@ -714,35 +733,35 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <f>COUNTIFS($A:$A,$D5,$B:$B,E$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F5">
-        <f>COUNTIFS($A:$A,$D5,$B:$B,F$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G5">
-        <f>COUNTIFS($A:$A,$D5,$B:$B,G$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5">
-        <f>COUNTIFS($A:$A,$D5,$B:$B,H$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5">
-        <f>COUNTIFS($A:$A,$D5,$B:$B,I$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J5">
-        <f>COUNTIFS($A:$A,$D5,$B:$B,J$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K5">
-        <f>COUNTIFS($A:$A,$D5,$B:$B,K$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L5">
-        <f>COUNTIFS($A:$A,$D5,$B:$B,L$2)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="N5" t="s">
@@ -784,35 +803,35 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <f>COUNTIFS($A:$A,$D6,$B:$B,E$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F6">
-        <f>COUNTIFS($A:$A,$D6,$B:$B,F$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G6">
-        <f>COUNTIFS($A:$A,$D6,$B:$B,G$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H6">
-        <f>COUNTIFS($A:$A,$D6,$B:$B,H$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I6">
-        <f>COUNTIFS($A:$A,$D6,$B:$B,I$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J6">
-        <f>COUNTIFS($A:$A,$D6,$B:$B,J$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K6">
-        <f>COUNTIFS($A:$A,$D6,$B:$B,K$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L6">
-        <f>COUNTIFS($A:$A,$D6,$B:$B,L$2)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="N6" t="s">
@@ -854,35 +873,35 @@
         <v>18</v>
       </c>
       <c r="E7">
-        <f>COUNTIFS($A:$A,$D7,$B:$B,E$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F7">
-        <f>COUNTIFS($A:$A,$D7,$B:$B,F$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>COUNTIFS($A:$A,$D7,$B:$B,G$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H7">
-        <f>COUNTIFS($A:$A,$D7,$B:$B,H$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>COUNTIFS($A:$A,$D7,$B:$B,I$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>COUNTIFS($A:$A,$D7,$B:$B,J$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K7">
-        <f>COUNTIFS($A:$A,$D7,$B:$B,K$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L7">
-        <f>COUNTIFS($A:$A,$D7,$B:$B,L$2)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="N7" t="s">
@@ -924,35 +943,35 @@
         <v>19</v>
       </c>
       <c r="E8">
-        <f>COUNTIFS($A:$A,$D8,$B:$B,E$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F8">
-        <f>COUNTIFS($A:$A,$D8,$B:$B,F$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G8">
-        <f>COUNTIFS($A:$A,$D8,$B:$B,G$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8">
-        <f>COUNTIFS($A:$A,$D8,$B:$B,H$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>COUNTIFS($A:$A,$D8,$B:$B,I$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>COUNTIFS($A:$A,$D8,$B:$B,J$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K8">
-        <f>COUNTIFS($A:$A,$D8,$B:$B,K$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L8">
-        <f>COUNTIFS($A:$A,$D8,$B:$B,L$2)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="N8" t="s">
@@ -994,35 +1013,35 @@
         <v>13</v>
       </c>
       <c r="E9" s="1">
-        <f>COUNTIFS($A:$A,$D9,$B:$B,E$2)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F9" s="1">
-        <f>COUNTIFS($A:$A,$D9,$B:$B,F$2)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="G9" s="1">
-        <f>COUNTIFS($A:$A,$D9,$B:$B,G$2)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H9" s="1">
-        <f>COUNTIFS($A:$A,$D9,$B:$B,H$2)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="I9" s="1">
-        <f>COUNTIFS($A:$A,$D9,$B:$B,I$2)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J9" s="1">
-        <f>COUNTIFS($A:$A,$D9,$B:$B,J$2)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="K9" s="1">
-        <f>COUNTIFS($A:$A,$D9,$B:$B,K$2)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="L9" s="1">
-        <f>COUNTIFS($A:$A,$D9,$B:$B,L$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N9" s="1" t="s">
@@ -1064,35 +1083,35 @@
         <v>17</v>
       </c>
       <c r="E10" s="1">
-        <f>COUNTIFS($A:$A,$D10,$B:$B,E$2)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="F10" s="1">
-        <f>COUNTIFS($A:$A,$D10,$B:$B,F$2)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="G10" s="1">
-        <f>COUNTIFS($A:$A,$D10,$B:$B,G$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H10" s="1">
-        <f>COUNTIFS($A:$A,$D10,$B:$B,H$2)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="I10" s="1">
-        <f>COUNTIFS($A:$A,$D10,$B:$B,I$2)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="J10" s="1">
-        <f>COUNTIFS($A:$A,$D10,$B:$B,J$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="K10" s="1">
-        <f>COUNTIFS($A:$A,$D10,$B:$B,K$2)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="L10" s="1">
-        <f>COUNTIFS($A:$A,$D10,$B:$B,L$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N10" s="1" t="s">
@@ -1134,35 +1153,35 @@
         <v>21</v>
       </c>
       <c r="E11" s="1">
-        <f>COUNTIFS($A:$A,$D11,$B:$B,E$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <f>COUNTIFS($A:$A,$D11,$B:$B,F$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <f>COUNTIFS($A:$A,$D11,$B:$B,G$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H11" s="1">
-        <f>COUNTIFS($A:$A,$D11,$B:$B,H$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I11" s="1">
-        <f>COUNTIFS($A:$A,$D11,$B:$B,I$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <f>COUNTIFS($A:$A,$D11,$B:$B,J$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K11" s="1">
-        <f>COUNTIFS($A:$A,$D11,$B:$B,K$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L11" s="1">
-        <f>COUNTIFS($A:$A,$D11,$B:$B,L$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N11" s="1" t="s">
@@ -1204,35 +1223,35 @@
         <v>3</v>
       </c>
       <c r="E12" s="1">
-        <f>COUNTIFS($A:$A,$D12,$B:$B,E$2)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F12" s="1">
-        <f>COUNTIFS($A:$A,$D12,$B:$B,F$2)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="G12" s="1">
-        <f>COUNTIFS($A:$A,$D12,$B:$B,G$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <f>COUNTIFS($A:$A,$D12,$B:$B,H$2)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I12" s="1">
-        <f>COUNTIFS($A:$A,$D12,$B:$B,I$2)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="J12" s="1">
-        <f>COUNTIFS($A:$A,$D12,$B:$B,J$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K12" s="1">
-        <f>COUNTIFS($A:$A,$D12,$B:$B,K$2)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="L12" s="1">
-        <f>COUNTIFS($A:$A,$D12,$B:$B,L$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N12" s="1" t="s">
@@ -1274,35 +1293,35 @@
         <v>20</v>
       </c>
       <c r="E13" s="1">
-        <f>COUNTIFS($A:$A,$D13,$B:$B,E$2)</f>
+        <f t="shared" ref="E13:L18" si="1">COUNTIFS($A:$A,$D13,$B:$B,E$2)</f>
         <v>10</v>
       </c>
       <c r="F13" s="1">
-        <f>COUNTIFS($A:$A,$D13,$B:$B,F$2)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G13" s="1">
-        <f>COUNTIFS($A:$A,$D13,$B:$B,G$2)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H13" s="1">
-        <f>COUNTIFS($A:$A,$D13,$B:$B,H$2)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I13" s="1">
-        <f>COUNTIFS($A:$A,$D13,$B:$B,I$2)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="J13" s="1">
-        <f>COUNTIFS($A:$A,$D13,$B:$B,J$2)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K13" s="1">
-        <f>COUNTIFS($A:$A,$D13,$B:$B,K$2)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="L13" s="1">
-        <f>COUNTIFS($A:$A,$D13,$B:$B,L$2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N13" s="1" t="s">
@@ -1344,35 +1363,35 @@
         <v>22</v>
       </c>
       <c r="E14" s="1">
-        <f>COUNTIFS($A:$A,$D14,$B:$B,E$2)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="F14" s="1">
-        <f>COUNTIFS($A:$A,$D14,$B:$B,F$2)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="G14" s="1">
-        <f>COUNTIFS($A:$A,$D14,$B:$B,G$2)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H14" s="1">
-        <f>COUNTIFS($A:$A,$D14,$B:$B,H$2)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I14" s="1">
-        <f>COUNTIFS($A:$A,$D14,$B:$B,I$2)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="J14" s="1">
-        <f>COUNTIFS($A:$A,$D14,$B:$B,J$2)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K14" s="1">
-        <f>COUNTIFS($A:$A,$D14,$B:$B,K$2)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="L14" s="1">
-        <f>COUNTIFS($A:$A,$D14,$B:$B,L$2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N14" s="1" t="s">
@@ -1414,35 +1433,35 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <f>COUNTIFS($A:$A,$D15,$B:$B,E$2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F15">
-        <f>COUNTIFS($A:$A,$D15,$B:$B,F$2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G15">
-        <f>COUNTIFS($A:$A,$D15,$B:$B,G$2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H15">
-        <f>COUNTIFS($A:$A,$D15,$B:$B,H$2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I15">
-        <f>COUNTIFS($A:$A,$D15,$B:$B,I$2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J15">
-        <f>COUNTIFS($A:$A,$D15,$B:$B,J$2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K15">
-        <f>COUNTIFS($A:$A,$D15,$B:$B,K$2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L15">
-        <f>COUNTIFS($A:$A,$D15,$B:$B,L$2)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N15" t="s">
@@ -1484,35 +1503,35 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <f>COUNTIFS($A:$A,$D16,$B:$B,E$2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F16">
-        <f>COUNTIFS($A:$A,$D16,$B:$B,F$2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G16">
-        <f>COUNTIFS($A:$A,$D16,$B:$B,G$2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H16">
-        <f>COUNTIFS($A:$A,$D16,$B:$B,H$2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I16">
-        <f>COUNTIFS($A:$A,$D16,$B:$B,I$2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J16">
-        <f>COUNTIFS($A:$A,$D16,$B:$B,J$2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K16">
-        <f>COUNTIFS($A:$A,$D16,$B:$B,K$2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L16">
-        <f>COUNTIFS($A:$A,$D16,$B:$B,L$2)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N16" t="s">
@@ -1554,35 +1573,35 @@
         <v>25</v>
       </c>
       <c r="E17" s="1">
-        <f>COUNTIFS($A:$A,$D17,$B:$B,E$2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <f>COUNTIFS($A:$A,$D17,$B:$B,F$2)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G17" s="1">
-        <f>COUNTIFS($A:$A,$D17,$B:$B,G$2)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H17" s="1">
-        <f>COUNTIFS($A:$A,$D17,$B:$B,H$2)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I17" s="1">
-        <f>COUNTIFS($A:$A,$D17,$B:$B,I$2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J17" s="1">
-        <f>COUNTIFS($A:$A,$D17,$B:$B,J$2)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K17" s="1">
-        <f>COUNTIFS($A:$A,$D17,$B:$B,K$2)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L17" s="1">
-        <f>COUNTIFS($A:$A,$D17,$B:$B,L$2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N17" s="1" t="s">
@@ -1624,35 +1643,35 @@
         <v>26</v>
       </c>
       <c r="E18" s="1">
-        <f>COUNTIFS($A:$A,$D18,$B:$B,E$2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <f>COUNTIFS($A:$A,$D18,$B:$B,F$2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G18" s="1">
-        <f>COUNTIFS($A:$A,$D18,$B:$B,G$2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H18" s="1">
-        <f>COUNTIFS($A:$A,$D18,$B:$B,H$2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I18" s="1">
-        <f>COUNTIFS($A:$A,$D18,$B:$B,I$2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J18" s="1">
-        <f>COUNTIFS($A:$A,$D18,$B:$B,J$2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K18" s="1">
-        <f>COUNTIFS($A:$A,$D18,$B:$B,K$2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L18" s="1">
-        <f>COUNTIFS($A:$A,$D18,$B:$B,L$2)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="N18" s="1" t="s">
@@ -1782,66 +1801,66 @@
         <v/>
       </c>
       <c r="F22" t="str">
-        <f t="shared" ref="F22:L22" si="0">IF(F3&gt;0,"Y","")</f>
+        <f t="shared" ref="F22:L22" si="2">IF(F3&gt;0,"Y","")</f>
         <v/>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="N22" t="s">
         <v>12</v>
       </c>
       <c r="O22" t="str">
-        <f>IF(O3&gt;0,"Y","")</f>
+        <f t="shared" ref="O22:O37" si="3">IF(O3&gt;0,"Y","")</f>
         <v/>
       </c>
       <c r="P22" t="str">
-        <f t="shared" ref="P22:V37" si="1">IF(P3&gt;0,"Y","")</f>
+        <f t="shared" ref="P22:V37" si="4">IF(P3&gt;0,"Y","")</f>
         <v/>
       </c>
       <c r="Q22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="V22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
     </row>
@@ -1856,70 +1875,70 @@
         <v>14</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" ref="E23:L37" si="2">IF(E4&gt;0,"Y","")</f>
+        <f t="shared" ref="E23:L37" si="5">IF(E4&gt;0,"Y","")</f>
         <v/>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="N23" t="s">
         <v>14</v>
       </c>
       <c r="O23" t="str">
-        <f>IF(O4&gt;0,"Y","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="V23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
     </row>
@@ -1934,70 +1953,70 @@
         <v>15</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="N24" t="s">
         <v>15</v>
       </c>
       <c r="O24" t="str">
-        <f>IF(O5&gt;0,"Y","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="V24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
     </row>
@@ -2012,70 +2031,70 @@
         <v>16</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="N25" t="s">
         <v>16</v>
       </c>
       <c r="O25" t="str">
-        <f>IF(O6&gt;0,"Y","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="V25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
     </row>
@@ -2090,70 +2109,70 @@
         <v>18</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="N26" t="s">
         <v>18</v>
       </c>
       <c r="O26" t="str">
-        <f>IF(O7&gt;0,"Y","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="V26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2168,70 +2187,70 @@
         <v>19</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="N27" t="s">
         <v>19</v>
       </c>
       <c r="O27" t="str">
-        <f>IF(O8&gt;0,"Y","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="V27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2246,70 +2265,70 @@
         <v>13</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N28" t="s">
         <v>13</v>
       </c>
       <c r="O28" t="str">
-        <f>IF(O9&gt;0,"Y","")</f>
-        <v/>
-      </c>
-      <c r="P28" t="str">
-        <f t="shared" si="1"/>
-        <v>Y</v>
-      </c>
-      <c r="Q28" t="str">
-        <f t="shared" si="1"/>
-        <v>Y</v>
-      </c>
-      <c r="R28" t="str">
-        <f t="shared" si="1"/>
-        <v>Y</v>
-      </c>
-      <c r="S28" t="str">
-        <f t="shared" si="1"/>
-        <v>Y</v>
-      </c>
-      <c r="T28" t="str">
-        <f t="shared" si="1"/>
-        <v>Y</v>
-      </c>
-      <c r="U28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P28" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Y</v>
+      </c>
+      <c r="Q28" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Y</v>
+      </c>
+      <c r="R28" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Y</v>
+      </c>
+      <c r="S28" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Y</v>
+      </c>
+      <c r="T28" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Y</v>
+      </c>
+      <c r="U28" s="2" t="str">
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="V28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2324,70 +2343,70 @@
         <v>17</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="L29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N29" t="s">
         <v>17</v>
       </c>
       <c r="O29" t="str">
-        <f>IF(O10&gt;0,"Y","")</f>
-        <v/>
-      </c>
-      <c r="P29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P29" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="Q29" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R29" t="str">
-        <f t="shared" si="1"/>
-        <v>Y</v>
-      </c>
-      <c r="S29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R29" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Y</v>
+      </c>
+      <c r="S29" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="T29" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="U29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="U29" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="V29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2402,70 +2421,70 @@
         <v>21</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N30" t="s">
         <v>21</v>
       </c>
       <c r="O30" t="str">
-        <f>IF(O11&gt;0,"Y","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="R30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="S30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="U30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="V30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2480,70 +2499,70 @@
         <v>3</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N31" t="s">
         <v>3</v>
       </c>
       <c r="O31" t="str">
-        <f>IF(O12&gt;0,"Y","")</f>
+        <f t="shared" si="3"/>
         <v>Y</v>
       </c>
       <c r="P31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="Q31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="S31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="T31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="V31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2558,70 +2577,70 @@
         <v>20</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="L32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N32" t="s">
         <v>20</v>
       </c>
       <c r="O32" t="str">
-        <f>IF(O13&gt;0,"Y","")</f>
+        <f t="shared" si="3"/>
         <v>Y</v>
       </c>
       <c r="P32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="Q32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="R32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="S32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="T32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="U32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="V32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2636,70 +2655,70 @@
         <v>22</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="L33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N33" t="s">
         <v>22</v>
       </c>
       <c r="O33" t="str">
-        <f>IF(O14&gt;0,"Y","")</f>
+        <f t="shared" si="3"/>
         <v>Y</v>
       </c>
       <c r="P33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="Q33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="R33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="S33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="T33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="U33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="V33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2714,70 +2733,70 @@
         <v>23</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="N34" t="s">
         <v>23</v>
       </c>
       <c r="O34" t="str">
-        <f>IF(O15&gt;0,"Y","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="V34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
     </row>
@@ -2792,70 +2811,70 @@
         <v>24</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="N35" t="s">
         <v>24</v>
       </c>
       <c r="O35" t="str">
-        <f>IF(O16&gt;0,"Y","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="V35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
     </row>
@@ -2870,70 +2889,70 @@
         <v>25</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="L36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N36" t="s">
         <v>25</v>
       </c>
       <c r="O36" t="str">
-        <f>IF(O17&gt;0,"Y","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="Q36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="R36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="S36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="U36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="V36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2948,70 +2967,70 @@
         <v>26</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
       <c r="N37" t="s">
         <v>26</v>
       </c>
       <c r="O37" t="str">
-        <f>IF(O18&gt;0,"Y","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="V37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
     </row>
@@ -3043,12 +3062,54 @@
       <c r="K38">
         <v>4</v>
       </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>2</v>
+      </c>
+      <c r="Q38">
+        <v>3</v>
+      </c>
+      <c r="R38">
+        <v>4</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <v>3</v>
+      </c>
+      <c r="U38">
+        <v>4</v>
+      </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>22</v>
       </c>
       <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>2</v>
+      </c>
+      <c r="Q39">
+        <v>3</v>
+      </c>
+      <c r="R39">
+        <v>4</v>
+      </c>
+      <c r="S39">
+        <v>2</v>
+      </c>
+      <c r="T39">
+        <v>3</v>
+      </c>
+      <c r="U39">
         <v>4</v>
       </c>
     </row>
